--- a/water_quality/samples.xlsx
+++ b/water_quality/samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/emc/water_quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141BC37-35BB-234B-B1DA-3A57D8E90C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE405512-4B50-DE4C-A7C7-0281EF1A31CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="900" windowWidth="15820" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
+    <workbookView xWindow="11600" yWindow="720" windowWidth="15820" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -34,65 +34,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Date and time</t>
   </si>
   <si>
-    <t>WQ1</t>
-  </si>
-  <si>
     <t>2021-04-06T13:47:02Z</t>
   </si>
   <si>
-    <t>WQ2</t>
-  </si>
-  <si>
     <t>2021-04-06T14:14:21Z</t>
   </si>
   <si>
-    <t>WQ3</t>
-  </si>
-  <si>
     <t>2021-04-06T14:21:01Z</t>
   </si>
   <si>
-    <t>WQ4</t>
-  </si>
-  <si>
     <t>2021-04-06T14:31:28Z</t>
   </si>
   <si>
-    <t>WQ5</t>
-  </si>
-  <si>
     <t>2021-04-06T14:46:08Z</t>
   </si>
   <si>
-    <t>WQ6</t>
-  </si>
-  <si>
     <t>2021-04-06T14:56:11Z</t>
   </si>
   <si>
-    <t>WQ7</t>
-  </si>
-  <si>
     <t>2021-04-06T15:01:52Z</t>
   </si>
   <si>
     <t>2021-04-06T15:19:12Z</t>
   </si>
   <si>
-    <t>WQ9</t>
-  </si>
-  <si>
     <t>2021-04-06T15:32:41Z</t>
   </si>
   <si>
-    <t>WQ10</t>
-  </si>
-  <si>
     <t>2021-04-06T15:39:14Z</t>
   </si>
   <si>
@@ -105,21 +78,6 @@
     <t>Ten Pound Bay</t>
   </si>
   <si>
-    <t>Great Deep</t>
-  </si>
-  <si>
-    <t>Friar's Head</t>
-  </si>
-  <si>
-    <t>Open water comparison</t>
-  </si>
-  <si>
-    <t>GI Anchorage</t>
-  </si>
-  <si>
-    <t>Dansby Beach</t>
-  </si>
-  <si>
     <t>Club House</t>
   </si>
   <si>
@@ -159,9 +117,6 @@
     <t>Nitrate_raw</t>
   </si>
   <si>
-    <t>WQ8</t>
-  </si>
-  <si>
     <t>ph</t>
   </si>
   <si>
@@ -174,13 +129,61 @@
     <t>Site</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>Nonsuch</t>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Open Water</t>
+  </si>
+  <si>
+    <t>Dansby's Beach</t>
+  </si>
+  <si>
+    <t>exploratory</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Nonsuch Anchorage</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Big Deep</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Friar's Head Bay</t>
+  </si>
+  <si>
+    <t>Green Isl. Anchorage</t>
   </si>
 </sst>
 </file>
@@ -543,73 +546,73 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>7.9</v>
@@ -644,19 +647,19 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>8.11</v>
@@ -691,19 +694,19 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>8.16</v>
@@ -738,19 +741,19 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>8.1880000000000006</v>
@@ -785,19 +788,19 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>8.1300000000000008</v>
@@ -818,7 +821,7 @@
         <v>6.47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1">
         <v>0.01</v>
@@ -832,19 +835,19 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>8.19</v>
@@ -865,7 +868,7 @@
         <v>7.19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1">
         <v>0.01</v>
@@ -879,19 +882,19 @@
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>8.2100000000000009</v>
@@ -926,19 +929,19 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>8.18</v>
@@ -973,19 +976,19 @@
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>8.19</v>
@@ -1006,7 +1009,7 @@
         <v>6.47</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1">
         <v>0.01</v>
@@ -1020,19 +1023,19 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>8.19</v>

--- a/water_quality/samples.xlsx
+++ b/water_quality/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/emc/water_quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0DDFE-A3CE-B04C-A3CF-42555E669761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F8E2C2-911A-3A4A-8FD9-B03E87D21398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
+    <workbookView xWindow="13580" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Hell's Gate</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Willoughby</t>
+  </si>
+  <si>
+    <t>Fort Williams</t>
+  </si>
+  <si>
+    <t>Big Deep - mat center</t>
+  </si>
+  <si>
+    <t>Big Deep - mat edge</t>
+  </si>
+  <si>
+    <t>Big Deep - 300m</t>
+  </si>
+  <si>
+    <t>Friar's - mat center</t>
+  </si>
+  <si>
+    <t>Friar's - mat edge</t>
+  </si>
+  <si>
+    <t>Friar's - 300m</t>
   </si>
 </sst>
 </file>
@@ -564,1300 +588,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1CC20-21DC-EB48-A8F9-D49E40D1816F}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
+      <c r="B2" s="5">
+        <v>44292</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>35698</v>
+      </c>
       <c r="F2" s="4">
-        <v>7.9</v>
+        <v>54918</v>
       </c>
       <c r="G2" s="4">
-        <v>35698</v>
+        <v>36360</v>
       </c>
       <c r="H2" s="4">
-        <v>54918</v>
+        <v>0.48</v>
       </c>
       <c r="I2" s="4">
-        <v>36360</v>
+        <v>6.48</v>
       </c>
       <c r="J2" s="4">
-        <v>0.48</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K2" s="4">
-        <v>6.48</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L2" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="M2" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="P2" s="4">
         <v>26.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
+      <c r="B3" s="5">
+        <v>44292</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35695</v>
+      </c>
       <c r="F3" s="4">
-        <v>8.11</v>
+        <v>54915</v>
       </c>
       <c r="G3" s="4">
-        <v>35695</v>
+        <v>36340</v>
       </c>
       <c r="H3" s="4">
-        <v>54915</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3" s="4">
-        <v>36340</v>
+        <v>6.43</v>
       </c>
       <c r="J3" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="4">
-        <v>6.43</v>
+        <v>0.03</v>
       </c>
       <c r="L3" s="4">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="M3" s="4">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="N3" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="P3" s="4">
         <v>26.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
+      <c r="B4" s="5">
+        <v>44292</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>35703</v>
+      </c>
       <c r="F4" s="4">
-        <v>8.16</v>
+        <v>54928</v>
       </c>
       <c r="G4" s="4">
-        <v>35703</v>
+        <v>36350</v>
       </c>
       <c r="H4" s="4">
-        <v>54928</v>
+        <v>0.22</v>
       </c>
       <c r="I4" s="4">
-        <v>36350</v>
+        <v>6.54</v>
       </c>
       <c r="J4" s="4">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="4">
-        <v>6.54</v>
+        <v>0.02</v>
       </c>
       <c r="L4" s="4">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="4">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="N4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="P4" s="4">
         <v>26.3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
+      <c r="B5" s="5">
+        <v>44292</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="4">
+        <v>8.1880000000000006</v>
+      </c>
+      <c r="E5" s="4">
+        <v>35775</v>
+      </c>
       <c r="F5" s="4">
-        <v>8.1880000000000006</v>
+        <v>55038</v>
       </c>
       <c r="G5" s="4">
-        <v>35775</v>
+        <v>36430</v>
       </c>
       <c r="H5" s="4">
-        <v>55038</v>
+        <v>0.35</v>
       </c>
       <c r="I5" s="4">
-        <v>36430</v>
+        <v>6.26</v>
       </c>
       <c r="J5" s="4">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="K5" s="4">
-        <v>6.26</v>
+        <v>0.08</v>
       </c>
       <c r="L5" s="4">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="M5" s="4">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="N5" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="P5" s="4">
         <v>26.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="B6" s="5">
+        <v>44292</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E6" s="4">
+        <v>35667</v>
+      </c>
       <c r="F6" s="4">
-        <v>8.1300000000000008</v>
+        <v>54872</v>
       </c>
       <c r="G6" s="4">
-        <v>35667</v>
+        <v>36310</v>
       </c>
       <c r="H6" s="4">
-        <v>54872</v>
+        <v>0.39</v>
       </c>
       <c r="I6" s="4">
-        <v>36310</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.39</v>
+        <v>6.47</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K6" s="4">
-        <v>6.47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.4</v>
       </c>
       <c r="M6" s="4">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="N6" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="P6" s="4">
         <v>26.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+      <c r="B7" s="5">
+        <v>44292</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="4">
+        <v>8.19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>35687</v>
+      </c>
       <c r="F7" s="4">
-        <v>8.19</v>
+        <v>54903</v>
       </c>
       <c r="G7" s="4">
-        <v>35687</v>
+        <v>36330</v>
       </c>
       <c r="H7" s="4">
-        <v>54903</v>
+        <v>0.31</v>
       </c>
       <c r="I7" s="4">
-        <v>36330</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.31</v>
+        <v>7.19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="4">
-        <v>7.19</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.4</v>
       </c>
       <c r="M7" s="4">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="P7" s="4">
         <v>26.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
+      <c r="B8" s="5">
+        <v>44292</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="4">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E8" s="4">
+        <v>35751</v>
+      </c>
       <c r="F8" s="4">
-        <v>8.2100000000000009</v>
+        <v>55002</v>
       </c>
       <c r="G8" s="4">
-        <v>35751</v>
+        <v>36400</v>
       </c>
       <c r="H8" s="4">
-        <v>55002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>36400</v>
+        <v>6.96</v>
       </c>
       <c r="J8" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.04</v>
       </c>
       <c r="K8" s="4">
-        <v>6.96</v>
+        <v>0.04</v>
       </c>
       <c r="L8" s="4">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="M8" s="4">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="N8" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="P8" s="4">
         <v>26.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
+      <c r="B9" s="5">
+        <v>44292</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>35705</v>
+      </c>
       <c r="F9" s="4">
-        <v>8.18</v>
+        <v>54930</v>
       </c>
       <c r="G9" s="4">
-        <v>35705</v>
+        <v>36360</v>
       </c>
       <c r="H9" s="4">
-        <v>54930</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I9" s="4">
-        <v>36360</v>
+        <v>6.51</v>
       </c>
       <c r="J9" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="K9" s="4">
-        <v>6.51</v>
+        <v>0.08</v>
       </c>
       <c r="L9" s="4">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="M9" s="4">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="N9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="P9" s="4">
         <v>26.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
+      <c r="B10" s="5">
+        <v>44292</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="4">
+        <v>8.19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35738</v>
+      </c>
       <c r="F10" s="4">
-        <v>8.19</v>
+        <v>54982</v>
       </c>
       <c r="G10" s="4">
-        <v>35738</v>
+        <v>36390</v>
       </c>
       <c r="H10" s="4">
-        <v>54982</v>
+        <v>0.38</v>
       </c>
       <c r="I10" s="4">
-        <v>36390</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.38</v>
+        <v>6.47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="4">
-        <v>6.47</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.28000000000000003</v>
       </c>
       <c r="M10" s="4">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N10" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P10" s="4">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
+      <c r="B11" s="5">
+        <v>44292</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44292</v>
-      </c>
-      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="4">
+        <v>8.19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>35801</v>
+      </c>
       <c r="F11" s="4">
-        <v>8.19</v>
+        <v>55079</v>
       </c>
       <c r="G11" s="4">
-        <v>35801</v>
+        <v>36460</v>
       </c>
       <c r="H11" s="4">
-        <v>55079</v>
+        <v>0.33</v>
       </c>
       <c r="I11" s="4">
-        <v>36460</v>
+        <v>6.63</v>
       </c>
       <c r="J11" s="4">
-        <v>0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>6.63</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L11" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="M11" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.41</v>
       </c>
       <c r="N11" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="P11" s="4">
         <v>26.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="B12" s="5">
         <v>44419</v>
       </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7.91</v>
+      </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>36660</v>
       </c>
       <c r="F12" s="2">
-        <v>7.91</v>
+        <v>55720</v>
       </c>
       <c r="G12" s="2">
-        <v>36660</v>
+        <v>31850</v>
       </c>
       <c r="H12" s="2">
-        <v>55720</v>
+        <v>1.58</v>
       </c>
       <c r="I12" s="2">
-        <v>31850</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.58</v>
-      </c>
-      <c r="K12" s="2">
         <v>6.84</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
       <c r="L12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="N12" s="2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="B13" s="5">
         <v>44419</v>
       </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.99</v>
+      </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>35080</v>
       </c>
       <c r="F13" s="2">
-        <v>7.99</v>
+        <v>55100</v>
       </c>
       <c r="G13" s="2">
-        <v>35080</v>
+        <v>30500</v>
       </c>
       <c r="H13" s="2">
-        <v>55100</v>
+        <v>1.4</v>
       </c>
       <c r="I13" s="2">
-        <v>30500</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="K13" s="2">
         <v>7.05</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
       <c r="L13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="N13" s="2">
         <v>28.9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="B14" s="5">
         <v>44419</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D14" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35500</v>
+      </c>
       <c r="F14" s="2">
-        <v>7.88</v>
+        <v>56070</v>
       </c>
       <c r="G14" s="2">
-        <v>35500</v>
+        <v>31590</v>
       </c>
       <c r="H14" s="2">
-        <v>56070</v>
+        <v>0.66</v>
       </c>
       <c r="I14" s="2">
-        <v>31590</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="K14" s="2">
         <v>7.51</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
       <c r="L14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="N14" s="2">
         <v>28.7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="B15" s="5">
         <v>44419</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D15" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="E15" s="2">
+        <v>35520</v>
+      </c>
       <c r="F15" s="2">
-        <v>7.84</v>
+        <v>53550</v>
       </c>
       <c r="G15" s="2">
-        <v>35520</v>
+        <v>32170</v>
       </c>
       <c r="H15" s="2">
-        <v>53550</v>
+        <v>1.06</v>
       </c>
       <c r="I15" s="2">
-        <v>32170</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="K15" s="2">
         <v>6.01</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="N15" s="2">
         <v>29.4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
+      <c r="B16" s="5">
         <v>44419</v>
       </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.71</v>
+      </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>36200</v>
       </c>
       <c r="F16" s="2">
-        <v>7.71</v>
+        <v>54880</v>
       </c>
       <c r="G16" s="2">
-        <v>36200</v>
+        <v>32330</v>
       </c>
       <c r="H16" s="2">
-        <v>54880</v>
+        <v>3.1</v>
       </c>
       <c r="I16" s="2">
-        <v>32330</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="K16" s="2">
         <v>6.2</v>
       </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="N16" s="2">
         <v>29.7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="B17" s="5">
         <v>44419</v>
       </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.8</v>
+      </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>34810</v>
       </c>
       <c r="F17" s="2">
-        <v>7.8</v>
+        <v>54550</v>
       </c>
       <c r="G17" s="2">
-        <v>34810</v>
+        <v>31570</v>
       </c>
       <c r="H17" s="2">
-        <v>54550</v>
+        <v>1.77</v>
       </c>
       <c r="I17" s="2">
-        <v>31570</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="K17" s="2">
         <v>5.7</v>
       </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="N17" s="2">
         <v>28.7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="B18" s="5">
         <v>44419</v>
       </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.88</v>
+      </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>35880</v>
       </c>
       <c r="F18" s="2">
-        <v>7.88</v>
+        <v>54300</v>
       </c>
       <c r="G18" s="2">
-        <v>35880</v>
+        <v>32080</v>
       </c>
       <c r="H18" s="2">
-        <v>54300</v>
+        <v>0.91</v>
       </c>
       <c r="I18" s="2">
-        <v>32080</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="K18" s="2">
         <v>6.58</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>14</v>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.04</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N18" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="P18" s="2">
         <v>28.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
+      <c r="B19" s="5">
         <v>44419</v>
       </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.48</v>
+      </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>36160</v>
       </c>
       <c r="F19" s="2">
-        <v>6.2</v>
+        <v>54370</v>
       </c>
       <c r="G19" s="2">
-        <v>36160</v>
+        <v>32130</v>
       </c>
       <c r="H19" s="2">
-        <v>54370</v>
+        <v>1.71</v>
       </c>
       <c r="I19" s="2">
-        <v>32130</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="K19" s="2">
         <v>6.43</v>
       </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
       <c r="L19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="N19" s="2">
         <v>28.7</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5">
+      <c r="B20" s="5">
         <v>44419</v>
       </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7.68</v>
+      </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>36640</v>
       </c>
       <c r="F20" s="2">
-        <v>7.68</v>
+        <v>53620</v>
       </c>
       <c r="G20" s="2">
-        <v>36640</v>
+        <v>31090</v>
       </c>
       <c r="H20" s="2">
-        <v>53620</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I20" s="2">
-        <v>31090</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K20" s="2">
         <v>5.56</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
       <c r="L20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="N20" s="2">
         <v>28.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="B21" s="5">
         <v>44419</v>
       </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.25</v>
+      </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>36030</v>
       </c>
       <c r="F21" s="2">
-        <v>7.25</v>
+        <v>53210</v>
       </c>
       <c r="G21" s="2">
-        <v>36030</v>
+        <v>32070</v>
       </c>
       <c r="H21" s="2">
-        <v>53210</v>
+        <v>26.2</v>
       </c>
       <c r="I21" s="2">
-        <v>32070</v>
-      </c>
-      <c r="J21" s="2">
-        <v>26.2</v>
-      </c>
-      <c r="K21" s="2">
         <v>0.26</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
       <c r="L21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N21" s="2">
         <v>28.6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5">
+      <c r="B22" s="5">
         <v>44419</v>
       </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7.65</v>
+      </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>30840</v>
       </c>
       <c r="F22" s="2">
-        <v>7.65</v>
+        <v>54920</v>
       </c>
       <c r="G22" s="2">
-        <v>30840</v>
+        <v>31850</v>
       </c>
       <c r="H22" s="2">
-        <v>54920</v>
+        <v>2.98</v>
       </c>
       <c r="I22" s="2">
-        <v>31850</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="K22" s="2">
         <v>5.48</v>
       </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
       <c r="L22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="N22" s="2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
+      <c r="B23" s="5">
         <v>44419</v>
       </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.71</v>
+      </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>36730</v>
       </c>
       <c r="F23" s="2">
-        <v>7.71</v>
+        <v>54830</v>
       </c>
       <c r="G23" s="2">
-        <v>36730</v>
+        <v>31440</v>
       </c>
       <c r="H23" s="2">
-        <v>54830</v>
+        <v>1.02</v>
       </c>
       <c r="I23" s="2">
-        <v>31440</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="K23" s="2">
         <v>6.12</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
       <c r="L23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="N23" s="2">
         <v>28.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5">
+      <c r="B24" s="5">
         <v>44419</v>
       </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.91</v>
+      </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>36010</v>
       </c>
       <c r="F24" s="2">
-        <v>7.91</v>
+        <v>53900</v>
       </c>
       <c r="G24" s="2">
-        <v>36010</v>
+        <v>29750</v>
       </c>
       <c r="H24" s="2">
-        <v>53900</v>
+        <v>1.07</v>
       </c>
       <c r="I24" s="2">
-        <v>29750</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="K24" s="2">
         <v>6.72</v>
       </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
       <c r="L24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="N24" s="2">
         <v>28.6</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5">
+      <c r="B25" s="5">
         <v>44419</v>
       </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.53</v>
+      </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>34580</v>
       </c>
       <c r="F25" s="2">
-        <v>7.53</v>
+        <v>54380</v>
       </c>
       <c r="G25" s="2">
-        <v>34580</v>
+        <v>31160</v>
       </c>
       <c r="H25" s="2">
-        <v>54380</v>
+        <v>2.14</v>
       </c>
       <c r="I25" s="2">
-        <v>31160</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2.14</v>
-      </c>
-      <c r="K25" s="2">
         <v>5.78</v>
       </c>
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
       <c r="L25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
+      <c r="N25" s="2">
         <v>28.8</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5">
+      <c r="B26" s="5">
         <v>44419</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D26" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>34580</v>
+      </c>
       <c r="F26" s="2">
-        <v>7.5</v>
+        <v>53920</v>
       </c>
       <c r="G26" s="2">
-        <v>34580</v>
+        <v>31060</v>
       </c>
       <c r="H26" s="2">
-        <v>53920</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="2">
-        <v>31060</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K26" s="2">
         <v>7.21</v>
       </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
       <c r="L26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="N26" s="2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5">
+      <c r="B27" s="5">
         <v>44419</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D27" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="E27" s="2">
+        <v>36590</v>
+      </c>
       <c r="F27" s="2">
-        <v>7.92</v>
+        <v>54840</v>
       </c>
       <c r="G27" s="2">
-        <v>36590</v>
+        <v>32230</v>
       </c>
       <c r="H27" s="2">
-        <v>54840</v>
+        <v>0.53</v>
       </c>
       <c r="I27" s="2">
-        <v>32230</v>
+        <v>6.51</v>
       </c>
       <c r="J27" s="2">
-        <v>0.53</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>6.51</v>
-      </c>
-      <c r="L27" s="2">
         <v>0.14000000000000001</v>
       </c>
+      <c r="L27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="M27" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
         <v>28.8</v>
       </c>
     </row>
@@ -1871,7 +1794,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2004,6 +1927,9 @@
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2012,6 +1938,9 @@
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2020,6 +1949,9 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2028,6 +1960,9 @@
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2036,29 +1971,41 @@
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/water_quality/samples.xlsx
+++ b/water_quality/samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/emc/water_quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F8E2C2-911A-3A4A-8FD9-B03E87D21398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F683F-B9F9-B440-B8BE-F31B9827D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
+    <workbookView xWindow="9560" yWindow="460" windowWidth="26260" windowHeight="17040" xr2:uid="{F83C51FD-ACD1-4143-913C-8F92A0F6EC2B}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>Hell's Gate</t>
   </si>
@@ -212,13 +212,19 @@
   </si>
   <si>
     <t>Friar's - 300m</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +242,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,6 +286,10 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +605,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1CC20-21DC-EB48-A8F9-D49E40D1816F}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <pane xSplit="2920" ySplit="1240" topLeftCell="D18" activePane="bottomRight"/>
+      <selection activeCell="E30" sqref="E30"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,6 +1803,416 @@
       </c>
       <c r="N27" s="2">
         <v>28.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44658</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E28" s="2">
+        <v>34400</v>
+      </c>
+      <c r="G28" s="2">
+        <v>30450</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="N28" s="2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44659</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E29" s="2">
+        <v>34200</v>
+      </c>
+      <c r="G29" s="2">
+        <v>30850</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6.52</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="N29" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44660</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E30" s="2">
+        <v>33900</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30600</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6.63</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N30" s="2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44661</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>33800</v>
+      </c>
+      <c r="G31" s="2">
+        <v>30880</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6.46</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N31" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44662</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="E32" s="2">
+        <v>33700</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30320</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="N32" s="2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44663</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E33" s="2">
+        <v>34100</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30550</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7.01</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44664</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30490</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="I34" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="N34" s="2">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44665</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>34300</v>
+      </c>
+      <c r="G35" s="2">
+        <v>30320</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="I35" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44666</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>33700</v>
+      </c>
+      <c r="G36" s="2">
+        <v>30550</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N36" s="2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44667</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="E37" s="2">
+        <v>34400</v>
+      </c>
+      <c r="G37" s="2">
+        <v>30810</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I37" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="N37" s="2">
+        <v>26.6</v>
       </c>
     </row>
   </sheetData>

--- a/water_quality/samples.xlsx
+++ b/water_quality/samples.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/emc/water_quality/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6D8EA2-CF4A-F442-ADA9-4924EC746639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="raw_data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sites" sheetId="2" r:id="rId5"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="sites" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -117,9 +126,6 @@
   </si>
   <si>
     <t>&lt;0.01</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>Type</t>
@@ -200,33 +206,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -236,58 +235,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -477,20 +475,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,12 +537,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -548,13 +551,13 @@
         <v>7.9</v>
       </c>
       <c r="E2" s="2">
-        <v>35698.0</v>
+        <v>35698</v>
       </c>
       <c r="F2" s="2">
-        <v>54918.0</v>
+        <v>54918</v>
       </c>
       <c r="G2" s="2">
-        <v>36360.0</v>
+        <v>36360</v>
       </c>
       <c r="H2" s="2">
         <v>0.48</v>
@@ -563,10 +566,10 @@
         <v>6.48</v>
       </c>
       <c r="J2" s="2">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K2" s="2">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L2" s="2">
         <v>0.44</v>
@@ -578,12 +581,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -592,16 +595,16 @@
         <v>8.11</v>
       </c>
       <c r="E3" s="2">
-        <v>35695.0</v>
+        <v>35695</v>
       </c>
       <c r="F3" s="2">
-        <v>54915.0</v>
+        <v>54915</v>
       </c>
       <c r="G3" s="2">
-        <v>36340.0</v>
+        <v>36340</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3" s="2">
         <v>6.43</v>
@@ -622,12 +625,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -636,13 +639,13 @@
         <v>8.16</v>
       </c>
       <c r="E4" s="2">
-        <v>35703.0</v>
+        <v>35703</v>
       </c>
       <c r="F4" s="2">
-        <v>54928.0</v>
+        <v>54928</v>
       </c>
       <c r="G4" s="2">
-        <v>36350.0</v>
+        <v>36350</v>
       </c>
       <c r="H4" s="2">
         <v>0.22</v>
@@ -666,27 +669,27 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>8.188</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="E5" s="2">
-        <v>35775.0</v>
+        <v>35775</v>
       </c>
       <c r="F5" s="2">
-        <v>55038.0</v>
+        <v>55038</v>
       </c>
       <c r="G5" s="2">
-        <v>36430.0</v>
+        <v>36430</v>
       </c>
       <c r="H5" s="2">
         <v>0.35</v>
@@ -710,27 +713,27 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E6" s="2">
-        <v>35667.0</v>
+        <v>35667</v>
       </c>
       <c r="F6" s="2">
-        <v>54872.0</v>
+        <v>54872</v>
       </c>
       <c r="G6" s="2">
-        <v>36310.0</v>
+        <v>36310</v>
       </c>
       <c r="H6" s="2">
         <v>0.39</v>
@@ -754,12 +757,12 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -768,13 +771,13 @@
         <v>8.19</v>
       </c>
       <c r="E7" s="2">
-        <v>35687.0</v>
+        <v>35687</v>
       </c>
       <c r="F7" s="2">
-        <v>54903.0</v>
+        <v>54903</v>
       </c>
       <c r="G7" s="2">
-        <v>36330.0</v>
+        <v>36330</v>
       </c>
       <c r="H7" s="2">
         <v>0.31</v>
@@ -798,30 +801,30 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E8" s="2">
-        <v>35751.0</v>
+        <v>35751</v>
       </c>
       <c r="F8" s="2">
-        <v>55002.0</v>
+        <v>55002</v>
       </c>
       <c r="G8" s="2">
-        <v>36400.0</v>
+        <v>36400</v>
       </c>
       <c r="H8" s="2">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I8" s="2">
         <v>6.96</v>
@@ -842,12 +845,12 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -856,16 +859,16 @@
         <v>8.18</v>
       </c>
       <c r="E9" s="2">
-        <v>35705.0</v>
+        <v>35705</v>
       </c>
       <c r="F9" s="2">
-        <v>54930.0</v>
+        <v>54930</v>
       </c>
       <c r="G9" s="2">
-        <v>36360.0</v>
+        <v>36360</v>
       </c>
       <c r="H9" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I9" s="2">
         <v>6.51</v>
@@ -886,12 +889,12 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -900,13 +903,13 @@
         <v>8.19</v>
       </c>
       <c r="E10" s="2">
-        <v>35738.0</v>
+        <v>35738</v>
       </c>
       <c r="F10" s="2">
-        <v>54982.0</v>
+        <v>54982</v>
       </c>
       <c r="G10" s="2">
-        <v>36390.0</v>
+        <v>36390</v>
       </c>
       <c r="H10" s="2">
         <v>0.38</v>
@@ -921,21 +924,21 @@
         <v>0.01</v>
       </c>
       <c r="L10" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M10" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N10" s="2">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>44292.0</v>
+        <v>44292</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -944,13 +947,13 @@
         <v>8.19</v>
       </c>
       <c r="E11" s="2">
-        <v>35801.0</v>
+        <v>35801</v>
       </c>
       <c r="F11" s="2">
-        <v>55079.0</v>
+        <v>55079</v>
       </c>
       <c r="G11" s="2">
-        <v>36460.0</v>
+        <v>36460</v>
       </c>
       <c r="H11" s="2">
         <v>0.33</v>
@@ -959,10 +962,10 @@
         <v>6.63</v>
       </c>
       <c r="J11" s="2">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L11" s="2">
         <v>0.41</v>
@@ -974,27 +977,27 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C12" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>7.91</v>
       </c>
       <c r="E12" s="4">
-        <v>36660.0</v>
+        <v>36660</v>
       </c>
       <c r="F12" s="4">
-        <v>55720.0</v>
+        <v>55720</v>
       </c>
       <c r="G12" s="4">
-        <v>31850.0</v>
+        <v>31850</v>
       </c>
       <c r="H12" s="4">
         <v>1.58</v>
@@ -1006,39 +1009,39 @@
         <v>20</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
         <v>29.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C13" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>7.99</v>
       </c>
       <c r="E13" s="4">
-        <v>35080.0</v>
+        <v>35080</v>
       </c>
       <c r="F13" s="4">
-        <v>55100.0</v>
+        <v>55100</v>
       </c>
       <c r="G13" s="4">
-        <v>30500.0</v>
+        <v>30500</v>
       </c>
       <c r="H13" s="4">
         <v>1.4</v>
@@ -1050,24 +1053,24 @@
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
         <v>28.9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -1076,13 +1079,13 @@
         <v>7.88</v>
       </c>
       <c r="E14" s="4">
-        <v>35500.0</v>
+        <v>35500</v>
       </c>
       <c r="F14" s="4">
-        <v>56070.0</v>
+        <v>56070</v>
       </c>
       <c r="G14" s="4">
-        <v>31590.0</v>
+        <v>31590</v>
       </c>
       <c r="H14" s="4">
         <v>0.66</v>
@@ -1094,24 +1097,24 @@
         <v>20</v>
       </c>
       <c r="K14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
         <v>28.7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -1120,13 +1123,13 @@
         <v>7.84</v>
       </c>
       <c r="E15" s="4">
-        <v>35520.0</v>
+        <v>35520</v>
       </c>
       <c r="F15" s="4">
-        <v>53550.0</v>
+        <v>53550</v>
       </c>
       <c r="G15" s="4">
-        <v>32170.0</v>
+        <v>32170</v>
       </c>
       <c r="H15" s="4">
         <v>1.06</v>
@@ -1138,39 +1141,39 @@
         <v>20</v>
       </c>
       <c r="K15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
         <v>29.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4">
         <v>7.71</v>
       </c>
       <c r="E16" s="4">
-        <v>36200.0</v>
+        <v>36200</v>
       </c>
       <c r="F16" s="4">
-        <v>54880.0</v>
+        <v>54880</v>
       </c>
       <c r="G16" s="4">
-        <v>32330.0</v>
+        <v>32330</v>
       </c>
       <c r="H16" s="4">
         <v>3.1</v>
@@ -1182,39 +1185,39 @@
         <v>20</v>
       </c>
       <c r="K16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
         <v>29.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>7.8</v>
       </c>
       <c r="E17" s="4">
-        <v>34810.0</v>
+        <v>34810</v>
       </c>
       <c r="F17" s="4">
-        <v>54550.0</v>
+        <v>54550</v>
       </c>
       <c r="G17" s="4">
-        <v>31570.0</v>
+        <v>31570</v>
       </c>
       <c r="H17" s="4">
         <v>1.77</v>
@@ -1226,39 +1229,39 @@
         <v>20</v>
       </c>
       <c r="K17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
         <v>28.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <v>7.88</v>
       </c>
       <c r="E18" s="4">
-        <v>35880.0</v>
+        <v>35880</v>
       </c>
       <c r="F18" s="4">
-        <v>54300.0</v>
+        <v>54300</v>
       </c>
       <c r="G18" s="4">
-        <v>32080.0</v>
+        <v>32080</v>
       </c>
       <c r="H18" s="4">
         <v>0.91</v>
@@ -1270,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <v>0.04</v>
@@ -1282,27 +1285,27 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>7.48</v>
       </c>
       <c r="E19" s="4">
-        <v>36160.0</v>
+        <v>36160</v>
       </c>
       <c r="F19" s="4">
-        <v>54370.0</v>
+        <v>54370</v>
       </c>
       <c r="G19" s="4">
-        <v>32130.0</v>
+        <v>32130</v>
       </c>
       <c r="H19" s="4">
         <v>1.71</v>
@@ -1314,42 +1317,42 @@
         <v>20</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <v>28.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>7.68</v>
       </c>
       <c r="E20" s="4">
-        <v>36640.0</v>
+        <v>36640</v>
       </c>
       <c r="F20" s="4">
-        <v>53620.0</v>
+        <v>53620</v>
       </c>
       <c r="G20" s="4">
-        <v>31090.0</v>
+        <v>31090</v>
       </c>
       <c r="H20" s="4">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I20" s="4">
         <v>5.56</v>
@@ -1358,39 +1361,39 @@
         <v>20</v>
       </c>
       <c r="K20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
         <v>28.8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C21" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4">
         <v>7.25</v>
       </c>
       <c r="E21" s="4">
-        <v>36030.0</v>
+        <v>36030</v>
       </c>
       <c r="F21" s="4">
-        <v>53210.0</v>
+        <v>53210</v>
       </c>
       <c r="G21" s="4">
-        <v>32070.0</v>
+        <v>32070</v>
       </c>
       <c r="H21" s="4">
         <v>26.2</v>
@@ -1402,39 +1405,39 @@
         <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
         <v>28.6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <v>7.65</v>
       </c>
       <c r="E22" s="4">
-        <v>30840.0</v>
+        <v>30840</v>
       </c>
       <c r="F22" s="4">
-        <v>54920.0</v>
+        <v>54920</v>
       </c>
       <c r="G22" s="4">
-        <v>31850.0</v>
+        <v>31850</v>
       </c>
       <c r="H22" s="4">
         <v>2.98</v>
@@ -1446,39 +1449,39 @@
         <v>20</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>29.2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C23" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>7.71</v>
       </c>
       <c r="E23" s="4">
-        <v>36730.0</v>
+        <v>36730</v>
       </c>
       <c r="F23" s="4">
-        <v>54830.0</v>
+        <v>54830</v>
       </c>
       <c r="G23" s="4">
-        <v>31440.0</v>
+        <v>31440</v>
       </c>
       <c r="H23" s="4">
         <v>1.02</v>
@@ -1490,39 +1493,39 @@
         <v>20</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <v>28.8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>7.91</v>
       </c>
       <c r="E24" s="4">
-        <v>36010.0</v>
+        <v>36010</v>
       </c>
       <c r="F24" s="4">
-        <v>53900.0</v>
+        <v>53900</v>
       </c>
       <c r="G24" s="4">
-        <v>29750.0</v>
+        <v>29750</v>
       </c>
       <c r="H24" s="4">
         <v>1.07</v>
@@ -1534,39 +1537,39 @@
         <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
         <v>28.6</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C25" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>7.53</v>
       </c>
       <c r="E25" s="4">
-        <v>34580.0</v>
+        <v>34580</v>
       </c>
       <c r="F25" s="4">
-        <v>54380.0</v>
+        <v>54380</v>
       </c>
       <c r="G25" s="4">
-        <v>31160.0</v>
+        <v>31160</v>
       </c>
       <c r="H25" s="4">
         <v>2.14</v>
@@ -1578,24 +1581,24 @@
         <v>20</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4">
         <v>28.8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -1604,13 +1607,13 @@
         <v>7.5</v>
       </c>
       <c r="E26" s="4">
-        <v>34580.0</v>
+        <v>34580</v>
       </c>
       <c r="F26" s="4">
-        <v>53920.0</v>
+        <v>53920</v>
       </c>
       <c r="G26" s="4">
-        <v>31060.0</v>
+        <v>31060</v>
       </c>
       <c r="H26" s="4">
         <v>0.6</v>
@@ -1622,24 +1625,24 @@
         <v>20</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4">
         <v>29.2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -1648,13 +1651,13 @@
         <v>7.92</v>
       </c>
       <c r="E27" s="4">
-        <v>36590.0</v>
+        <v>36590</v>
       </c>
       <c r="F27" s="4">
-        <v>54840.0</v>
+        <v>54840</v>
       </c>
       <c r="G27" s="4">
-        <v>32230.0</v>
+        <v>32230</v>
       </c>
       <c r="H27" s="4">
         <v>0.53</v>
@@ -1663,40 +1666,42 @@
         <v>6.51</v>
       </c>
       <c r="J27" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K27" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4">
         <v>28.8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="4">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E28" s="4">
-        <v>34400.0</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>34400</v>
+      </c>
+      <c r="F28" s="6">
+        <v>55515</v>
+      </c>
       <c r="G28" s="4">
-        <v>30450.0</v>
+        <v>30450</v>
       </c>
       <c r="H28" s="4">
         <v>0.88</v>
@@ -1708,7 +1713,7 @@
         <v>34</v>
       </c>
       <c r="K28" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
         <v>0.33</v>
@@ -1720,28 +1725,30 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E29" s="4">
-        <v>34200.0</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>34200</v>
+      </c>
+      <c r="F29" s="6">
+        <v>55345</v>
+      </c>
       <c r="G29" s="4">
-        <v>30850.0</v>
+        <v>30850</v>
       </c>
       <c r="H29" s="4">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I29" s="4">
         <v>6.52</v>
@@ -1750,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="K29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4">
         <v>0.26</v>
@@ -1762,25 +1769,27 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E30" s="4">
-        <v>33900.0</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>33900</v>
+      </c>
+      <c r="F30" s="6">
+        <v>55215</v>
+      </c>
       <c r="G30" s="4">
-        <v>30600.0</v>
+        <v>30600</v>
       </c>
       <c r="H30" s="4">
         <v>0.89</v>
@@ -1795,21 +1804,21 @@
         <v>0.01</v>
       </c>
       <c r="L30" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M30" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N30" s="4">
         <v>26.4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
@@ -1818,11 +1827,13 @@
         <v>8.18</v>
       </c>
       <c r="E31" s="4">
-        <v>33800.0</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>33800</v>
+      </c>
+      <c r="F31" s="6">
+        <v>55257</v>
+      </c>
       <c r="G31" s="4">
-        <v>30880.0</v>
+        <v>30880</v>
       </c>
       <c r="H31" s="4">
         <v>0.63</v>
@@ -1834,7 +1845,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="4">
         <v>0.25</v>
@@ -1846,12 +1857,12 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>15</v>
@@ -1860,11 +1871,13 @@
         <v>8.17</v>
       </c>
       <c r="E32" s="4">
-        <v>33700.0</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>33700</v>
+      </c>
+      <c r="F32" s="6">
+        <v>55377</v>
+      </c>
       <c r="G32" s="4">
-        <v>30320.0</v>
+        <v>30320</v>
       </c>
       <c r="H32" s="4">
         <v>0.7</v>
@@ -1876,7 +1889,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4">
         <v>0.23</v>
@@ -1888,28 +1901,30 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="4">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E33" s="4">
-        <v>34100.0</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>34100</v>
+      </c>
+      <c r="F33" s="6">
+        <v>55328</v>
+      </c>
       <c r="G33" s="4">
-        <v>30550.0</v>
+        <v>30550</v>
       </c>
       <c r="H33" s="4">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I33" s="4">
         <v>7.01</v>
@@ -1918,7 +1933,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4">
         <v>0.2</v>
@@ -1930,12 +1945,12 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
@@ -1944,11 +1959,13 @@
         <v>8.19</v>
       </c>
       <c r="E34" s="4">
-        <v>34000.0</v>
-      </c>
-      <c r="F34" s="6"/>
+        <v>34000</v>
+      </c>
+      <c r="F34" s="6">
+        <v>55279</v>
+      </c>
       <c r="G34" s="4">
-        <v>30490.0</v>
+        <v>30490</v>
       </c>
       <c r="H34" s="4">
         <v>0.52</v>
@@ -1972,12 +1989,12 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
@@ -1986,11 +2003,13 @@
         <v>8.19</v>
       </c>
       <c r="E35" s="4">
-        <v>34300.0</v>
-      </c>
-      <c r="F35" s="6"/>
+        <v>34300</v>
+      </c>
+      <c r="F35" s="6">
+        <v>55157</v>
+      </c>
       <c r="G35" s="4">
-        <v>30320.0</v>
+        <v>30320</v>
       </c>
       <c r="H35" s="4">
         <v>0.62</v>
@@ -2002,7 +2021,7 @@
         <v>34</v>
       </c>
       <c r="K35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4">
         <v>0.2</v>
@@ -2014,12 +2033,12 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
@@ -2028,11 +2047,13 @@
         <v>8.18</v>
       </c>
       <c r="E36" s="4">
-        <v>33700.0</v>
-      </c>
-      <c r="F36" s="6"/>
+        <v>33700</v>
+      </c>
+      <c r="F36" s="6">
+        <v>54930</v>
+      </c>
       <c r="G36" s="4">
-        <v>30550.0</v>
+        <v>30550</v>
       </c>
       <c r="H36" s="4">
         <v>0.65</v>
@@ -2044,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
         <v>0.25</v>
@@ -2056,12 +2077,12 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="5">
-        <v>44658.0</v>
+        <v>44658</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -2070,11 +2091,13 @@
         <v>8.17</v>
       </c>
       <c r="E37" s="4">
-        <v>34400.0</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>34400</v>
+      </c>
+      <c r="F37" s="6">
+        <v>54374</v>
+      </c>
       <c r="G37" s="4">
-        <v>30810.0</v>
+        <v>30810</v>
       </c>
       <c r="H37" s="4">
         <v>0.72</v>
@@ -2086,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="K37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4">
         <v>0.26</v>
@@ -2099,230 +2122,231 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>